--- a/output/fit_clients/fit_round_73.xlsx
+++ b/output/fit_clients/fit_round_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7633161120.535146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00473387563365084</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.956770845896563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9486003708223769</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.956770845896563</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5024022609.705796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003835893459237254</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.3352808036975</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8838778061221264</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.3352808036975</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4238148350.837182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003236134767665825</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.002446884103708</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9557565719537844</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.002446884103708</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>5173515103.243446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005128103429700764</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.541368735608349</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.833114959747816</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.541368735608349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7837844805.041429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002188438132852947</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.391399172016387</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8725630992268467</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.391399172016387</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5533692662.080607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008291495707006543</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.389596369086173</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8984923895415496</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.389596369086173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7485366846.410226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002732606064082265</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.447853021085581</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9664280809372651</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.447853021085581</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6759689501.807314</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003441520217740373</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.913324655685718</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.900307851089966</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.913324655685718</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3799460003.525993</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005567987080859003</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2721071321385525</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.527231251622744</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.5116165876443965</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.527231251622744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3812231903.242426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001062837574060182</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7040892760082994</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.365741112399923</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.848229193510849</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.365741112399923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5744679251.226615</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001352023159896111</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.015701619260631</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9889329892620693</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.015701619260631</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4115070700.16894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003822864495771815</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5676814031503391</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.453830318524632</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9706091870799081</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.453830318524632</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8329501828.310509</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00243032442272233</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.914302185285209</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8984137334252565</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.914302185285209</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5486015850.781193</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004507056830750611</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3749917786555736</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.305879011819422</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.7345023114341697</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.305879011819422</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8236532510.285035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004095965902806519</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.992438086760751</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9165590454513366</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.992438086760751</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6486905295.896049</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003297040220352699</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.927692161690495</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.84266530675297</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.183755390182494</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.84266530675297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6084358788.305943</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009483633886697104</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.875621776313011</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9266096456741729</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.875621776313011</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3792797793.915199</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002112004685812303</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.726281485743217</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9173329902452573</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.726281485743217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5667097190.977978</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00104186174744335</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7285803480139195</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.982467414842768</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.912164097004038</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.982467414842768</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5900415486.393188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005516710945679843</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.799982047143434</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8657856098944879</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.799982047143434</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4516964197.711767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005378934421078618</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.464737237294758</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7786411878314777</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.464737237294758</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7932706779.819791</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001293284683717357</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.241103859775264</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8558912142701006</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.241103859775264</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6208673461.123164</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003168266490214653</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.152238654508319</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.002016494454873</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.152238654508319</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7556723501.822017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00273544144064666</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.245305774761127</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9467282268635759</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.245305774761127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5660389851.005112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009542351485858097</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.317116723233283</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8202363018905354</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.317116723233283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8112565826.042476</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003760555740922668</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.744225437476748</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9373098304764587</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.744225437476748</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6803128878.099202</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00518657030961264</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.950239531841629</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9165590454513366</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.950239531841629</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6678264884.337937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001034543101256448</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.028662131120567</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9837158214855295</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.028662131120567</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5959454987.519377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003824801579299276</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.590319111560519</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8957631292450204</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.590319111560519</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6733401787.299482</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002617909764657841</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.493906123786114</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9464653593391013</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.493906123786114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4545942193.105348</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001428016237488652</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.007259391738684</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9329075015562466</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.007259391738684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5725180474.746367</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002508893953121033</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.139359813554302</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8521518528369029</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.139359813554302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5339255673.538525</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003800800976205303</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.867272826276377</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7521195836354829</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.867272826276377</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5563168428.586051</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001775423180298181</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.714094449055271</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9251530201680757</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.714094449055271</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5897664594.055767</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003059955950787079</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.716778921817674</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.010234798293891</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.716778921817674</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4089260768.267288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005976860257950334</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.807502682658755</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.014651331802511</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.807502682658755</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3672150330.399848</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004440331262114101</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.552331895144492</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9007411177244773</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.552331895144492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6291729837.509747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002030281922741467</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.010434518723629</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8577968426934761</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.010434518723629</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7013639562.738609</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004434820566173168</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.746637936750778</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9693609030689476</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.746637936750778</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5857568979.121664</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001166243473158589</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.066265380288353</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9328696252057039</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.066265380288353</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5167983193.035396</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003648474142488527</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.617956917012011</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9791958480430403</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.617956917012011</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5761298787.320898</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005076891802593913</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.839820137134641</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9184542138584142</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.839820137134641</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6315549513.782807</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002029931659270781</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.540769131343751</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9244620690917759</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.540769131343751</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5020488734.280747</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001458210167084913</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.0987483933012</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9597212824108916</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.0987483933012</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9328224274.933407</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004776152665599505</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.745296521406765</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8301707931542476</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.745296521406765</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8920071832.098663</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002298992566572584</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.551309674527848</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8892419701857404</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.551309674527848</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6896950037.929042</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002725728553502521</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9993602858318134</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.232992338706654</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.242170570069243</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.232992338706654</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4373222227.573834</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004972059340836033</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.552731168180019</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8598626351452868</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.552731168180019</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6583789680.92707</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003845958664674053</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.131320360715029</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.033640919236762</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.131320360715029</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5304382595.830523</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004717753467435563</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5939579569622138</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.488383163719333</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9125794473952609</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.488383163719333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6583691045.689385</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001701484722981366</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.856063519500533</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.86574479696495</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.856063519500533</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5881802333.060506</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002373564846685113</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.735223581700431</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9195740703805485</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.735223581700431</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5824852066.32487</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005689246377954751</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.476348549678343</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8481859869554585</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.476348549678343</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7908330922.549075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003110335159150459</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9732610822757384</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.547414912584685</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.183534916079442</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.547414912584685</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4521660084.230903</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002128912328136276</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>14</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.755882359935658</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9071796202156188</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.755882359935658</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5986995222.470454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003084991374099717</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8899100393029515</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.591643973905032</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.026637369711858</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.591643973905032</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5664979339.11037</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002879738982105944</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.337366807985707</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8202363018905354</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.337366807985707</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6941965664.680882</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00305134133765012</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.778264347523789</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8999529043043865</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.778264347523789</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4520467123.05716</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002763784214208905</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.5122272044702</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8305981046229113</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.5122272044702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5729006366.251618</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003900659050831563</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.977663379102416</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9252294031120538</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.977663379102416</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>3992876911.023073</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00256170106755295</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.215427330164114</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8669735003230161</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.215427330164114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7603527455.128561</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00466087523877975</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.268013325784236</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5234239225902136</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.268013325784236</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4068702082.127934</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003982492116838232</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.882893778351046</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8972674676177308</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.882893778351046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5230566951.273934</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004833519465364234</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4167347442425852</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.006918204371249</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.7712987474995887</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.006918204371249</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6336364072.715663</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.0024829175797318</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.852235277539608</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9124455257973464</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.852235277539608</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7467557379.028285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004820401481041786</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.133356894220984</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8876444215746172</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.133356894220984</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8246016638.799788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003066876770082313</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.352232303670628</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.721436983909966</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.352232303670628</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4582749595.579888</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001070278345713014</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.420209511899245</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9899374305400803</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.420209511899245</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7917120755.427386</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003530423719544897</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.001660344944382</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9033380015383663</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.001660344944382</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3653799624.915417</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002730285702388609</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8460651400680973</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.769042767092644</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9611249141172604</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.769042767092644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5753000426.794422</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002035866264958346</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.482383892546079</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.031440693260551</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.482383892546079</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7717309372.561435</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009178721945309261</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.026657688214984</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9621957142934505</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.026657688214984</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6440814362.303863</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003764096515059139</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.752091415539532</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.880297480748622</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.752091415539532</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6330321879.206039</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003118304425739811</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.717261869429785</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8669735003230161</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.717261869429785</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5355384474.119745</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001924025999075508</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.2299403969042047</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.645554528399622</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.4219690783767082</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.645554528399622</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7571616251.627063</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005560856648642773</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.084888416449583</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9812596475552154</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.084888416449583</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7590431713.728071</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003293622278117944</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.670814392600314</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9165975958004435</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.670814392600314</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8147643686.90698</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002591868782241217</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.108122617430544</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.962896284638089</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.108122617430544</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7739347200.339213</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002642102715406521</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.782698886316877</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9611990440588707</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.782698886316877</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4810692791.231097</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003211871614771022</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.465440516159533</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9854101374248121</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.465440516159533</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5347555465.712591</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004863415874257061</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.499722547612611</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8752839623942832</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.499722547612611</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9447342141.341021</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003066701261302788</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.184764729436606</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8106178518072438</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.184764729436606</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5752419623.563662</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003730256953208182</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.45873013758662</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9471775645537885</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.45873013758662</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4050734215.67085</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003365058364556218</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.195249487448186</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8788445070312734</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.195249487448186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5727141335.837796</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002218747110366993</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.819955994288482</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9809700138028385</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.819955994288482</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3485921965.437445</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001635284650585048</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4381103488110267</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.147624697299209</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.7323943532992802</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.147624697299209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6204311325.172727</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003865972763635649</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7578496487069544</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.567546451799804</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9499113646335468</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.567546451799804</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5239166898.674696</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00536578746121224</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.028961485933782</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9561277584244009</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.028961485933782</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6124822660.004079</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00301027775551754</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.852881959433294</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.953972554377601</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.852881959433294</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7657348272.65114</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003479883736554105</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8963495938183602</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.790710273915157</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.004440983802032</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.790710273915157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3538614158.215365</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002964911461688577</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.997040759471032</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.047555000486947</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.997040759471032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5457413380.33832</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001640748466891896</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.573607638216783</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9158616108681491</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.573607638216783</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5255763351.461081</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009996741513221862</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.3875323197766218</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.868686938971694</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.7463675286158159</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.868686938971694</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4833946745.091838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002115955243091374</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.97928424242308</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.218135147440333</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.97928424242308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7275350019.206586</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002617387987607688</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>21</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.3870216972883456</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.305489883859118</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.6305928281516562</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.305489883859118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6225111370.690974</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004006463675672913</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.861299079404107</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8876842276288481</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.861299079404107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8678045467.465025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004424524206140762</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.632630276769373</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8661545584182436</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.632630276769373</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3136594798.578646</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005596220321145011</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.534106065173742</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8935018727565008</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.534106065173742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6135636773.358931</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003172558947132764</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.747745289371371</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8260138596437807</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.747745289371371</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7201896479.56408</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001604511098769958</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6195617676823048</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.841016862005754</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8838378286353076</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.841016862005754</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_73.xlsx
+++ b/output/fit_clients/fit_round_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7633161120.535146</v>
+        <v>1909726000.227665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00473387563365084</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18</v>
+        <v>0.1055060840724268</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04171611565160353</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>954862983.5257387</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5024022609.705796</v>
+        <v>1829932778.269816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003835893459237254</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1426919685005344</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03594165274864833</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>914966402.7610979</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4238148350.837182</v>
+        <v>4540861912.893155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003236134767665825</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+        <v>0.1016643667216028</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02862200161025452</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2270431008.838461</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3384989780.832679</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08528992569561773</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04498370712601002</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5173515103.243446</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.005128103429700764</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1692494934.711269</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7837844805.041429</v>
+        <v>2700805837.14557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002188438132852947</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1269742224329787</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04772916166968987</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1350402872.222964</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5533692662.080607</v>
+        <v>2603137903.549519</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008291495707006543</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.09424569566469521</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04534545187199224</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1301568954.765378</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7485366846.410226</v>
+        <v>3174927833.79413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002732606064082265</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.2126088142397529</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02682377634827071</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1587463992.204831</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6759689501.807314</v>
+        <v>2120515714.248244</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003441520217740373</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1963258933156379</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03675417350681871</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1060257866.916728</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3799460003.525993</v>
+        <v>5359406153.416295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005567987080859003</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1995310584567216</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04010929829361149</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2679703203.745701</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3936705393.631218</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1878072247169867</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04790739992527626</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3812231903.242426</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001062837574060182</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1968352705.004835</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5744679251.226615</v>
+        <v>2472968349.32128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001352023159896111</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20</v>
+        <v>0.14439480151906</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05210505318019122</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1236484144.33404</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4115070700.16894</v>
+        <v>4682578368.319456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003822864495771815</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.09263606761351958</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02511427806127252</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2341289204.308963</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3026131961.511723</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1319780442175173</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03075584378613281</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>486</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8329501828.310509</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.00243032442272233</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17</v>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1513066013.176449</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5486015850.781193</v>
+        <v>1448765033.088982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004507056830750611</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.08693691467811902</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04463071538837979</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>724382590.3374045</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8236532510.285035</v>
+        <v>2685926585.955793</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004095965902806519</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.08715751250996298</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03229534513649657</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1342963307.090011</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6486905295.896049</v>
+        <v>4950437012.817429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003297040220352699</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1206754495370448</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03605044500298181</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2475218493.961684</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6084358788.305943</v>
+        <v>3979997585.006817</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009483633886697104</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20</v>
+        <v>0.1567692842308587</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03393314442559602</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1989998751.769868</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3792797793.915199</v>
+        <v>1014501084.465076</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002112004685812303</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.144697157259391</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02718661441363435</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>507250574.9173997</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5667097190.977978</v>
+        <v>1800564183.88751</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00104186174744335</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1305880080193378</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02719438385600819</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>900282139.4442118</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5900415486.393188</v>
+        <v>2590245941.81108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005516710945679843</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13</v>
+        <v>0.100945823496612</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03862400087942412</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1295122950.353813</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4516964197.711767</v>
+        <v>3092642529.449241</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005378934421078618</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1339552812486501</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04782944158051036</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1546321320.6103</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7932706779.819791</v>
+        <v>1168104136.698711</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001293284683717357</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.1498814083877482</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04409795367486864</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>584052110.1205903</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3893105555.214919</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0907629540211021</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02761944640869762</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>513</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6208673461.123164</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.003168266490214653</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1946552752.685686</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7556723501.822017</v>
+        <v>1339644087.24787</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00273544144064666</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.07724290250989724</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02944649705092785</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>669822029.36768</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5660389851.005112</v>
+        <v>1086793886.575507</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009542351485858097</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1238374273645691</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03900729702580233</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>543396936.4945837</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8112565826.042476</v>
+        <v>4428073077.925385</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003760555740922668</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>19</v>
+        <v>0.1090845304407097</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02313421704856309</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2214036527.734213</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3528055776.864187</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.10879667381845</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03723528832948791</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6803128878.099202</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.00518657030961264</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>18</v>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1764027945.396152</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6678264884.337937</v>
+        <v>4834831443.15392</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001034543101256448</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.1481181279462812</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02940818312376885</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2417415680.521128</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5959454987.519377</v>
+        <v>1607286077.882296</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003824801579299276</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>23</v>
+        <v>0.09015161713313233</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02430408820562591</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>803643031.5759702</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6733401787.299482</v>
+        <v>923354840.7444404</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002617909764657841</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.08581207202648025</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04933565150779837</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>461677436.8336288</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4545942193.105348</v>
+        <v>1899805506.044054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001428016237488652</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08869892192625928</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03107613099989911</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>949902904.0788443</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5725180474.746367</v>
+        <v>2299587414.165676</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002508893953121033</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1583620369630537</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05374468329002991</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1149793762.266923</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5339255673.538525</v>
+        <v>1521688824.54704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003800800976205303</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22</v>
+        <v>0.09812074199469115</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02663470127401279</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>760844364.4551724</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5563168428.586051</v>
+        <v>1006690961.411972</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001775423180298181</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>19</v>
+        <v>0.1072622686605544</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03416074652893959</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>503345497.7244146</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5897664594.055767</v>
+        <v>3017887602.174448</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003059955950787079</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21</v>
+        <v>0.174958508717817</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01791996926081253</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>18</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1508943781.473868</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4089260768.267288</v>
+        <v>2620663184.115159</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005976860257950334</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09117527334759995</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03793756237490281</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1310331704.6221</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3672150330.399848</v>
+        <v>2009113635.499561</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004440331262114101</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1207989387143896</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03465310403551483</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1004556794.998653</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6291729837.509747</v>
+        <v>1889772258.959449</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002030281922741467</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1323356020535602</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03292130837314454</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>944886140.6658976</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7013639562.738609</v>
+        <v>1605359486.850538</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004434820566173168</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1525186526672857</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05213104076664308</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>802679683.1160496</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5857568979.121664</v>
+        <v>2125295957.848348</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001166243473158589</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
+        <v>0.1617141619303928</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04038242321725011</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1062648040.769681</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5167983193.035396</v>
+        <v>2807005224.458773</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003648474142488527</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>18</v>
+        <v>0.1067282278134539</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02960852345851304</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1403502559.272271</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5761298787.320898</v>
+        <v>1870941142.440141</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005076891802593913</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1600540079558122</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01562299882400166</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>935470683.0312271</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6315549513.782807</v>
+        <v>1837653667.985712</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002029931659270781</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19</v>
+        <v>0.08018717380729413</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03580334709198719</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>918826907.8463018</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5020488734.280747</v>
+        <v>1975806870.893226</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001458210167084913</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1698573624598506</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03881236228933699</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>987903423.7746961</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9328224274.933407</v>
+        <v>3651889594.335443</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004776152665599505</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1136720220214607</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04774174228123918</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1825944746.692352</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>456</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4619016612.626477</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1278642621307321</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03871497549270425</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8920071832.098663</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.002298992566572584</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2309508340.419655</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6896950037.929042</v>
+        <v>3794542187.074935</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002725728553502521</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.1072052042024312</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03494235217389699</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1897271139.755367</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4373222227.573834</v>
+        <v>1733741774.573816</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004972059340836033</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1828493380342103</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0398376796672962</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>866870882.8541402</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6583789680.92707</v>
+        <v>2987627255.562359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003845958664674053</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1145369189114143</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05265628957929802</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1493813688.398817</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5304382595.830523</v>
+        <v>1089872589.099051</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004717753467435563</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.179801447007161</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05405389097483648</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>544936363.858139</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6583691045.689385</v>
+        <v>4786515018.367044</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001701484722981366</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.08524513583466889</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06002919475139336</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>17</v>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2393257519.278471</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5881802333.060506</v>
+        <v>3425954974.055947</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002373564846685113</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1375047993635222</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02741489542643996</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1712977489.964502</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5824852066.32487</v>
+        <v>4193176958.264468</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005689246377954751</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+        <v>0.1662339366476289</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03614126615054528</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2096588558.252512</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7908330922.549075</v>
+        <v>4730966666.799947</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003110335159150459</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>23</v>
+        <v>0.1864204134757276</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02157112838233817</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2365483340.48471</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4521660084.230903</v>
+        <v>1709474755.301949</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002128912328136276</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.102466233824204</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03947597404755119</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>854737388.8108552</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5986995222.470454</v>
+        <v>3753722291.570591</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003084991374099717</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1727449382845373</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02622471654544344</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1876861213.367527</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5664979339.11037</v>
+        <v>1798430939.18533</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002879738982105944</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1748111580301543</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.032191069668134</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>899215473.4088254</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6941965664.680882</v>
+        <v>3887151700.39416</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00305134133765012</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
+        <v>0.1286146052069043</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04401854965473891</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1943575831.471109</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4520467123.05716</v>
+        <v>2790094778.466949</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002763784214208905</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1569838801404133</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0322578738180069</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1395047437.478996</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5729006366.251618</v>
+        <v>3237944785.774899</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003900659050831563</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1582066696012416</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02789067431023282</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1618972350.814742</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>3992876911.023073</v>
+        <v>1922472588.484632</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00256170106755295</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1511834417505168</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04642594626792938</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>961236340.6021509</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7603527455.128561</v>
+        <v>3891371471.062646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00466087523877975</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17</v>
+        <v>0.07928635287176834</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03001995373360935</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1945685802.669289</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4068702082.127934</v>
+        <v>4530223454.953241</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003982492116838232</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.157912348053993</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03343883512480955</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2265111800.534717</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5230566951.273934</v>
+        <v>4780160611.414777</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004833519465364234</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1074250246001327</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02924366390233537</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2390080277.638178</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6336364072.715663</v>
+        <v>3514852851.079074</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0024829175797318</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>15</v>
+        <v>0.136548460769461</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04564028867978238</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1757426373.02527</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7467557379.028285</v>
+        <v>2487543731.34587</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004820401481041786</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.08140925155681135</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04689748095851839</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1243771927.19143</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8246016638.799788</v>
+        <v>5905527764.64531</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003066876770082313</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
+        <v>0.1588208185109806</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03495218694296356</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2952763993.485134</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4582749595.579888</v>
+        <v>1572804732.733747</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001070278345713014</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1576893670875228</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05739140425969808</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>786402315.9798476</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7917120755.427386</v>
+        <v>3141462303.677142</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003530423719544897</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.07690156815718294</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03163642341896807</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1570731137.941986</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3653799624.915417</v>
+        <v>4888529028.221114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002730285702388609</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1851428152450391</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02166901188893484</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2444264611.37584</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5753000426.794422</v>
+        <v>1664489223.119806</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002035866264958346</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
+        <v>0.0749574643522342</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05317612744877293</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>832244611.9367087</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3436177132.237434</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1064097923298476</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0401879855091611</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7717309372.561435</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.0009178721945309261</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16</v>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1718088522.060635</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6440814362.303863</v>
+        <v>3732845463.161424</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003764096515059139</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1168542110153643</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03182189643787107</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1866422733.50436</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6330321879.206039</v>
+        <v>2042838273.565146</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003118304425739811</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.1209870995564753</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03359843150548441</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1021419096.853119</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5355384474.119745</v>
+        <v>3466963920.702949</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001924025999075508</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15</v>
+        <v>0.08111656476933526</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02889976306682294</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1733481922.575302</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7571616251.627063</v>
+        <v>1417037070.041729</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005560856648642773</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27</v>
+        <v>0.1863784135019197</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02522269468508363</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>708518510.3307196</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7590431713.728071</v>
+        <v>4229292091.917592</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003293622278117944</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1117543288728062</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05609769772703493</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2114645995.182674</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8147643686.90698</v>
+        <v>1838592863.169036</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002591868782241217</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1623209866805874</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03842890267583364</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>919296524.9270205</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7739347200.339213</v>
+        <v>4553732433.748457</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002642102715406521</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>26</v>
+        <v>0.07632742399134564</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02888866802580968</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2276866243.790028</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4810692791.231097</v>
+        <v>3425526097.207585</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003211871614771022</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1091980827467395</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03033948579932454</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1712762990.346622</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5347555465.712591</v>
+        <v>3575690925.597763</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004863415874257061</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1708595093520981</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02235354916451605</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1787845526.160129</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9447342141.341021</v>
+        <v>1702455375.404588</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003066701261302788</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1434449708716825</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03618548371802602</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>851227635.8524972</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5752419623.563662</v>
+        <v>2138744693.00212</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003730256953208182</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.08894027096001628</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04460290128113461</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1069372331.086277</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4050734215.67085</v>
+        <v>2998809136.197077</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003365058364556218</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1209252820813258</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04918788322920417</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1499404628.031951</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>502</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2413213970.917698</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1713974505690133</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0176176161313488</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>6</v>
       </c>
-      <c r="D86" t="n">
-        <v>517</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5727141335.837796</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.002218747110366993</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+      <c r="J86" t="n">
+        <v>1206607070.446223</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3485921965.437445</v>
+        <v>1011885222.69363</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001635284650585048</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1228784797212173</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02980502354091399</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>505942618.5871186</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6204311325.172727</v>
+        <v>2426313296.37208</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003865972763635649</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.151151473029708</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02932743986556129</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1213156621.867507</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5239166898.674696</v>
+        <v>3386710087.130111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00536578746121224</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+        <v>0.1347616928176766</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02695796535875855</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1693355053.230876</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6124822660.004079</v>
+        <v>1499058487.782246</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00301027775551754</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.1079723429842711</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05324029608189909</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>749529222.3551722</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7657348272.65114</v>
+        <v>1699792665.038633</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003479883736554105</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>22</v>
+        <v>0.150161427398974</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04017500114197457</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>849896344.7146522</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3538614158.215365</v>
+        <v>1894470391.033004</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002964911461688577</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08299843226391074</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04717832064754319</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>947235133.6314607</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5457413380.33832</v>
+        <v>4489984938.54398</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001640748466891896</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1420601170224774</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04980312009635339</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2244992438.129083</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5255763351.461081</v>
+        <v>1675462434.44971</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009996741513221862</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>23</v>
+        <v>0.1180830797291333</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03683592424084511</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>837731173.2300793</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4833946745.091838</v>
+        <v>2282004710.287357</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002115955243091374</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>18</v>
+        <v>0.1348152121556795</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03704035646283507</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1141002407.015877</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7275350019.206586</v>
+        <v>2248001194.311949</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002617387987607688</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>19</v>
+        <v>0.1125920470996493</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03274330966047481</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1124000557.560367</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4783227603.599607</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1374051866771785</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02609787320140228</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6225111370.690974</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.004006463675672913</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>19</v>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2391613921.042411</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8678045467.465025</v>
+        <v>2696190597.146551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004424524206140762</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>27</v>
+        <v>0.1215936339579177</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02480285248892108</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1348095262.58991</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3136594798.578646</v>
+        <v>2146886726.268416</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005596220321145011</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1132947753893497</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02236709600202205</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1073443287.122605</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6135636773.358931</v>
+        <v>3160503861.108022</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003172558947132764</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1121378983790173</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02609779659986993</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1580251934.13703</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7201896479.56408</v>
+        <v>2796843376.143708</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001604511098769958</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1452365484868516</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04422272601029047</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>23</v>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1398421750.178332</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_73.xlsx
+++ b/output/fit_clients/fit_round_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1909726000.227665</v>
+        <v>1942327175.44872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1055060840724268</v>
+        <v>0.08313685400043809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04171611565160353</v>
+        <v>0.03700754608454991</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>954862983.5257387</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1829932778.269816</v>
+        <v>1997459441.938953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1426919685005344</v>
+        <v>0.1279434858681761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03594165274864833</v>
+        <v>0.03405350022406484</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>914966402.7610979</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4540861912.893155</v>
+        <v>4108133581.349598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1016643667216028</v>
+        <v>0.1508625086594885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02862200161025452</v>
+        <v>0.02698814552637334</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2270431008.838461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3384989780.832679</v>
+        <v>2721993620.153146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08528992569561773</v>
+        <v>0.09661357876705137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04498370712601002</v>
+        <v>0.04777420981538493</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1692494934.711269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2700805837.14557</v>
+        <v>1925901684.45958</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1269742224329787</v>
+        <v>0.09494454886505956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04772916166968987</v>
+        <v>0.04929448775687693</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1350402872.222964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2603137903.549519</v>
+        <v>2739710731.854526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09424569566469521</v>
+        <v>0.09552761223379833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04534545187199224</v>
+        <v>0.04471139430023673</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1301568954.765378</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3174927833.79413</v>
+        <v>3599429155.404385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2126088142397529</v>
+        <v>0.1857006968066847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02682377634827071</v>
+        <v>0.02254830416583644</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1587463992.204831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2120515714.248244</v>
+        <v>2009144121.371986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1963258933156379</v>
+        <v>0.1894477376378974</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03675417350681871</v>
+        <v>0.03735746727192637</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1060257866.916728</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5359406153.416295</v>
+        <v>5062351688.303815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1995310584567216</v>
+        <v>0.1781384499593131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04010929829361149</v>
+        <v>0.04385162186880353</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2679703203.745701</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3936705393.631218</v>
+        <v>3585185431.061362</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1878072247169867</v>
+        <v>0.1717076340602896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04790739992527626</v>
+        <v>0.04170248769673141</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1968352705.004835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2472968349.32128</v>
+        <v>2907187011.157151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14439480151906</v>
+        <v>0.159002017992614</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05210505318019122</v>
+        <v>0.05061813097815684</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1236484144.33404</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4682578368.319456</v>
+        <v>3558810052.037259</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09263606761351958</v>
+        <v>0.09213889851179725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02511427806127252</v>
+        <v>0.02104315731385326</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>24</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2341289204.308963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3026131961.511723</v>
+        <v>3047079035.318391</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1319780442175173</v>
+        <v>0.1379937505073931</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03075584378613281</v>
+        <v>0.03521472315542164</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1513066013.176449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1448765033.088982</v>
+        <v>1611451708.545478</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08693691467811902</v>
+        <v>0.08749559659404883</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04463071538837979</v>
+        <v>0.03393282626517793</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>724382590.3374045</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2685926585.955793</v>
+        <v>2088798712.22754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08715751250996298</v>
+        <v>0.1086671832019379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03229534513649657</v>
+        <v>0.04183061746871524</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1342963307.090011</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4950437012.817429</v>
+        <v>3212479254.410548</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1206754495370448</v>
+        <v>0.1513625499526907</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03605044500298181</v>
+        <v>0.04079452019417743</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2475218493.961684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3979997585.006817</v>
+        <v>3927813464.794504</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1567692842308587</v>
+        <v>0.142331307296283</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03393314442559602</v>
+        <v>0.03318878238463666</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>24</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1989998751.769868</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1014501084.465076</v>
+        <v>853359165.1093006</v>
       </c>
       <c r="F19" t="n">
-        <v>0.144697157259391</v>
+        <v>0.1273638920720116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02718661441363435</v>
+        <v>0.01935647787190897</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>507250574.9173997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1800564183.88751</v>
+        <v>1837613203.970346</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1305880080193378</v>
+        <v>0.1224887476608887</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02719438385600819</v>
+        <v>0.02962476385956057</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>900282139.4442118</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2590245941.81108</v>
+        <v>2328405409.492545</v>
       </c>
       <c r="F21" t="n">
-        <v>0.100945823496612</v>
+        <v>0.06352561321560261</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03862400087942412</v>
+        <v>0.04420594275653179</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1295122950.353813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3092642529.449241</v>
+        <v>3149653408.516936</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1339552812486501</v>
+        <v>0.1038274198687038</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04782944158051036</v>
+        <v>0.04613294191871991</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1546321320.6103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168104136.698711</v>
+        <v>1536391079.126723</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1498814083877482</v>
+        <v>0.1758319612714909</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04409795367486864</v>
+        <v>0.05055599059265703</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584052110.1205903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3893105555.214919</v>
+        <v>2935381125.619193</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0907629540211021</v>
+        <v>0.1120163409745829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02761944640869762</v>
+        <v>0.02904978402949472</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1946552752.685686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1339644087.24787</v>
+        <v>1164765263.341007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07724290250989724</v>
+        <v>0.08163923523440671</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02944649705092785</v>
+        <v>0.03022704986883162</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>669822029.36768</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1086793886.575507</v>
+        <v>1184718972.250519</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1238374273645691</v>
+        <v>0.1094967009545276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03900729702580233</v>
+        <v>0.03593526703371776</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>543396936.4945837</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4428073077.925385</v>
+        <v>4079213519.187639</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1090845304407097</v>
+        <v>0.1114064871133956</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02313421704856309</v>
+        <v>0.02340774023198184</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2214036527.734213</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3528055776.864187</v>
+        <v>3318820473.317901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.10879667381845</v>
+        <v>0.1000153208744545</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03723528832948791</v>
+        <v>0.04422301190843068</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1764027945.396152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4834831443.15392</v>
+        <v>5565062428.41382</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481181279462812</v>
+        <v>0.09940113730228134</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02940818312376885</v>
+        <v>0.03639790708623437</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>33</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2417415680.521128</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1607286077.882296</v>
+        <v>2127954480.693126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09015161713313233</v>
+        <v>0.08512451159369884</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02430408820562591</v>
+        <v>0.03702072055917023</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>803643031.5759702</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923354840.7444404</v>
+        <v>983818266.3068026</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08581207202648025</v>
+        <v>0.08252883236664112</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04933565150779837</v>
+        <v>0.03408436323138801</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>461677436.8336288</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1899805506.044054</v>
+        <v>1178969830.207967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08869892192625928</v>
+        <v>0.1193906302136693</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03107613099989911</v>
+        <v>0.02460916415910777</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>949902904.0788443</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2299587414.165676</v>
+        <v>2754578626.358575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1583620369630537</v>
+        <v>0.1285512172242043</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05374468329002991</v>
+        <v>0.05379850145687731</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>21</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1149793762.266923</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1521688824.54704</v>
+        <v>1306649590.496194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09812074199469115</v>
+        <v>0.09798933466546821</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02663470127401279</v>
+        <v>0.0240339091026955</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>760844364.4551724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1006690961.411972</v>
+        <v>953532870.4981768</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1072622686605544</v>
+        <v>0.0869419935508917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03416074652893959</v>
+        <v>0.044175803198489</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>503345497.7244146</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3017887602.174448</v>
+        <v>3000971951.647591</v>
       </c>
       <c r="F36" t="n">
-        <v>0.174958508717817</v>
+        <v>0.1775320520055118</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01791996926081253</v>
+        <v>0.02442364452911567</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1508943781.473868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2620663184.115159</v>
+        <v>1785140022.729006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09117527334759995</v>
+        <v>0.1014114960763752</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03793756237490281</v>
+        <v>0.03281319547848288</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1310331704.6221</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2009113635.499561</v>
+        <v>1387634906.676759</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1207989387143896</v>
+        <v>0.1162326219020351</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03465310403551483</v>
+        <v>0.02996455225408263</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1004556794.998653</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1889772258.959449</v>
+        <v>1992891515.265016</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1323356020535602</v>
+        <v>0.173754740856373</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03292130837314454</v>
+        <v>0.02338670984408753</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>944886140.6658976</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1605359486.850538</v>
+        <v>1557153938.779008</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1525186526672857</v>
+        <v>0.1230349993239788</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05213104076664308</v>
+        <v>0.05194338224137106</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>802679683.1160496</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2125295957.848348</v>
+        <v>2133030856.566465</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1617141619303928</v>
+        <v>0.1436954551957627</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04038242321725011</v>
+        <v>0.03012277903479068</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>18</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1062648040.769681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2807005224.458773</v>
+        <v>3696730507.686339</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1067282278134539</v>
+        <v>0.09943802889319557</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02960852345851304</v>
+        <v>0.03071046385731299</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1403502559.272271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1870941142.440141</v>
+        <v>2059738879.316247</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1600540079558122</v>
+        <v>0.193150204553013</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01562299882400166</v>
+        <v>0.01859793798334443</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26</v>
-      </c>
-      <c r="J43" t="n">
-        <v>935470683.0312271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1837653667.985712</v>
+        <v>1910223654.291325</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08018717380729413</v>
+        <v>0.1000022514962114</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03580334709198719</v>
+        <v>0.02505729448804637</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>918826907.8463018</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1975806870.893226</v>
+        <v>1591647660.342144</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1698573624598506</v>
+        <v>0.1930315052915913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03881236228933699</v>
+        <v>0.0467394433453791</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>987903423.7746961</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3651889594.335443</v>
+        <v>5471130177.767945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1136720220214607</v>
+        <v>0.1332687005936132</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04774174228123918</v>
+        <v>0.03744088269451814</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>26</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1825944746.692352</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4619016612.626477</v>
+        <v>4745316556.811335</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1278642621307321</v>
+        <v>0.1508683906824638</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03871497549270425</v>
+        <v>0.04115290721962522</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2309508340.419655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3794542187.074935</v>
+        <v>3938212166.697824</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1072052042024312</v>
+        <v>0.09358174704746201</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03494235217389699</v>
+        <v>0.02854031401429062</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1897271139.755367</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1733741774.573816</v>
+        <v>1646236836.396533</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1828493380342103</v>
+        <v>0.1432415429439646</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0398376796672962</v>
+        <v>0.03254770250033816</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>866870882.8541402</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2987627255.562359</v>
+        <v>3539919985.50169</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1145369189114143</v>
+        <v>0.1645451137814019</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05265628957929802</v>
+        <v>0.03862491117131139</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1493813688.398817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1089872589.099051</v>
+        <v>1404254107.973196</v>
       </c>
       <c r="F51" t="n">
-        <v>0.179801447007161</v>
+        <v>0.1967496903065859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05405389097483648</v>
+        <v>0.05289069490715573</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>544936363.858139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4786515018.367044</v>
+        <v>5055163651.031795</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08524513583466889</v>
+        <v>0.09369356753372887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06002919475139336</v>
+        <v>0.03899147911932697</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>30</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2393257519.278471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3425954974.055947</v>
+        <v>2751270078.629307</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1375047993635222</v>
+        <v>0.1976699464342519</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02741489542643996</v>
+        <v>0.02881227244899051</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1712977489.964502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4193176958.264468</v>
+        <v>3678634368.293972</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1662339366476289</v>
+        <v>0.1220764692343004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03614126615054528</v>
+        <v>0.04754483083075708</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2096588558.252512</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4730966666.799947</v>
+        <v>4012917437.377087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1864204134757276</v>
+        <v>0.2080432499214521</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02157112838233817</v>
+        <v>0.02692110071924933</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2365483340.48471</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1709474755.301949</v>
+        <v>1708334473.069133</v>
       </c>
       <c r="F56" t="n">
-        <v>0.102466233824204</v>
+        <v>0.09984113380141731</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03947597404755119</v>
+        <v>0.04314624632886748</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>854737388.8108552</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3753722291.570591</v>
+        <v>3302737735.53358</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1727449382845373</v>
+        <v>0.1531190576496471</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02622471654544344</v>
+        <v>0.02019771795072184</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>23</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1876861213.367527</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1798430939.18533</v>
+        <v>1706778984.438648</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1748111580301543</v>
+        <v>0.1465438213608876</v>
       </c>
       <c r="G58" t="n">
-        <v>0.032191069668134</v>
+        <v>0.02991422276802016</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>899215473.4088254</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3887151700.39416</v>
+        <v>4864917786.383012</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1286146052069043</v>
+        <v>0.1291282943223558</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04401854965473891</v>
+        <v>0.03163483789496749</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1943575831.471109</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2790094778.466949</v>
+        <v>3729464799.990112</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1569838801404133</v>
+        <v>0.1724102326225888</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0322578738180069</v>
+        <v>0.03257743619996897</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1395047437.478996</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3237944785.774899</v>
+        <v>3319853552.062544</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1582066696012416</v>
+        <v>0.1248634415581629</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02789067431023282</v>
+        <v>0.02880402960448104</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1618972350.814742</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1922472588.484632</v>
+        <v>2062806502.149732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1511834417505168</v>
+        <v>0.1428879315849997</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04642594626792938</v>
+        <v>0.03491897086419952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>961236340.6021509</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3891371471.062646</v>
+        <v>5073252023.116928</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07928635287176834</v>
+        <v>0.08510163028246223</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03001995373360935</v>
+        <v>0.03636513694318987</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1945685802.669289</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4530223454.953241</v>
+        <v>4682394276.08507</v>
       </c>
       <c r="F64" t="n">
-        <v>0.157912348053993</v>
+        <v>0.1860210144126317</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03343883512480955</v>
+        <v>0.02548812253426179</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>23</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2265111800.534717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4780160611.414777</v>
+        <v>5394764606.931807</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1074250246001327</v>
+        <v>0.1262873636510678</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02924366390233537</v>
+        <v>0.02168970955451052</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2390080277.638178</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3514852851.079074</v>
+        <v>3658669306.108513</v>
       </c>
       <c r="F66" t="n">
-        <v>0.136548460769461</v>
+        <v>0.1500713983255163</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04564028867978238</v>
+        <v>0.04103929376930152</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>21</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1757426373.02527</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2487543731.34587</v>
+        <v>2138597915.976725</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08140925155681135</v>
+        <v>0.06784169107648329</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04689748095851839</v>
+        <v>0.03470664041830271</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1243771927.19143</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5905527764.64531</v>
+        <v>5461093703.292676</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1588208185109806</v>
+        <v>0.1600118337370819</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03495218694296356</v>
+        <v>0.03400694642730152</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2952763993.485134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1572804732.733747</v>
+        <v>1928623786.719332</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1576893670875228</v>
+        <v>0.1745418449725945</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05739140425969808</v>
+        <v>0.05920256742976883</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>786402315.9798476</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3141462303.677142</v>
+        <v>3444919642.950389</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07690156815718294</v>
+        <v>0.06428869330255249</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03163642341896807</v>
+        <v>0.04243277946539568</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1570731137.941986</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4888529028.221114</v>
+        <v>5549911036.968313</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1851428152450391</v>
+        <v>0.1187241207053063</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02166901188893484</v>
+        <v>0.02986270515827727</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2444264611.37584</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1664489223.119806</v>
+        <v>1646300264.370047</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0749574643522342</v>
+        <v>0.09805909083285871</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05317612744877293</v>
+        <v>0.03462448263456389</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>832244611.9367087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3436177132.237434</v>
+        <v>3556140979.64484</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1064097923298476</v>
+        <v>0.06798932160944435</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0401879855091611</v>
+        <v>0.04367714618945207</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>27</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1718088522.060635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3732845463.161424</v>
+        <v>3683895070.601414</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1168542110153643</v>
+        <v>0.1661842641289017</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03182189643787107</v>
+        <v>0.03344656365036922</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1866422733.50436</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2042838273.565146</v>
+        <v>1536366302.857572</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209870995564753</v>
+        <v>0.1174075893526264</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03359843150548441</v>
+        <v>0.02605554328463887</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1021419096.853119</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3466963920.702949</v>
+        <v>3257909297.687219</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08111656476933526</v>
+        <v>0.08720232140030425</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02889976306682294</v>
+        <v>0.03202464411992301</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1733481922.575302</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1417037070.041729</v>
+        <v>1736892670.173407</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1863784135019197</v>
+        <v>0.1229115916421177</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02522269468508363</v>
+        <v>0.02281748239712718</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>708518510.3307196</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4229292091.917592</v>
+        <v>3109244104.950194</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117543288728062</v>
+        <v>0.1336653309970651</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05609769772703493</v>
+        <v>0.05611207429615362</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2114645995.182674</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1838592863.169036</v>
+        <v>1270564110.662167</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1623209866805874</v>
+        <v>0.1328660120227229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03842890267583364</v>
+        <v>0.04066407589760297</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>919296524.9270205</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4553732433.748457</v>
+        <v>4907045356.087111</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07632742399134564</v>
+        <v>0.07130744315605654</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02888866802580968</v>
+        <v>0.03569713562292589</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2276866243.790028</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3425526097.207585</v>
+        <v>4142774011.425087</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1091980827467395</v>
+        <v>0.1166761942025203</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03033948579932454</v>
+        <v>0.02946339154825038</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1712762990.346622</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3575690925.597763</v>
+        <v>5538180187.590078</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1708595093520981</v>
+        <v>0.139396619142975</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02235354916451605</v>
+        <v>0.02460596732494328</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1787845526.160129</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1702455375.404588</v>
+        <v>1658752558.866763</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1434449708716825</v>
+        <v>0.1493343941125406</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03618548371802602</v>
+        <v>0.04305774542962715</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>851227635.8524972</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2138744693.00212</v>
+        <v>2066347599.992712</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08894027096001628</v>
+        <v>0.1167637957045241</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04460290128113461</v>
+        <v>0.04411245596889939</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1069372331.086277</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2998809136.197077</v>
+        <v>3348035859.229761</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1209252820813258</v>
+        <v>0.1298241421317982</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04918788322920417</v>
+        <v>0.05149836804987968</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>27</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1499404628.031951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2413213970.917698</v>
+        <v>2776161830.590116</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1713974505690133</v>
+        <v>0.1601600680876161</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0176176161313488</v>
+        <v>0.02455594081018702</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1206607070.446223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1011885222.69363</v>
+        <v>1073426138.213494</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1228784797212173</v>
+        <v>0.14778274623106</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02980502354091399</v>
+        <v>0.04285208620280177</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>505942618.5871186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2426313296.37208</v>
+        <v>2480126061.228585</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151151473029708</v>
+        <v>0.1349917650138086</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02932743986556129</v>
+        <v>0.0358042328998434</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1213156621.867507</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3386710087.130111</v>
+        <v>3385440732.863748</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1347616928176766</v>
+        <v>0.1351107448389807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02695796535875855</v>
+        <v>0.03097778391638543</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>25</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1693355053.230876</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1499058487.782246</v>
+        <v>1710501851.009261</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1079723429842711</v>
+        <v>0.1203342287310336</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05324029608189909</v>
+        <v>0.0434656691636895</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>749529222.3551722</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1699792665.038633</v>
+        <v>1633460509.627964</v>
       </c>
       <c r="F91" t="n">
-        <v>0.150161427398974</v>
+        <v>0.1340913201920335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04017500114197457</v>
+        <v>0.05884629306386099</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>849896344.7146522</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1894470391.033004</v>
+        <v>1829646721.502935</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08299843226391074</v>
+        <v>0.09754532316353814</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04717832064754319</v>
+        <v>0.04733725264399154</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>947235133.6314607</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4489984938.54398</v>
+        <v>4706929034.577616</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1420601170224774</v>
+        <v>0.1019227286080807</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04980312009635339</v>
+        <v>0.04888483438251677</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2244992438.129083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1675462434.44971</v>
+        <v>1739655352.16285</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1180830797291333</v>
+        <v>0.1260360354824145</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03683592424084511</v>
+        <v>0.03971277005562118</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>837731173.2300793</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2282004710.287357</v>
+        <v>3224605513.433307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1348152121556795</v>
+        <v>0.1184354314434514</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03704035646283507</v>
+        <v>0.03728457695988226</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1141002407.015877</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2248001194.311949</v>
+        <v>2256740051.244132</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1125920470996493</v>
+        <v>0.1033638520278473</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03274330966047481</v>
+        <v>0.0420716712447841</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1124000557.560367</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4783227603.599607</v>
+        <v>4585145851.619629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1374051866771785</v>
+        <v>0.1425413695247974</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02609787320140228</v>
+        <v>0.01779112071130336</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>23</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2391613921.042411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2696190597.146551</v>
+        <v>3080526375.590012</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1215936339579177</v>
+        <v>0.09523392626281886</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02480285248892108</v>
+        <v>0.0265095750234404</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1348095262.58991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2146886726.268416</v>
+        <v>2238880050.738488</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1132947753893497</v>
+        <v>0.119919796169161</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02236709600202205</v>
+        <v>0.02805131037803896</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1073443287.122605</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3160503861.108022</v>
+        <v>3560747552.924582</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121378983790173</v>
+        <v>0.1088908395037816</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02609779659986993</v>
+        <v>0.01998515888604959</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>22</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1580251934.13703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2796843376.143708</v>
+        <v>3561995958.691193</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452365484868516</v>
+        <v>0.1913015123878507</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04422272601029047</v>
+        <v>0.05176683033981316</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>31</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1398421750.178332</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_73.xlsx
+++ b/output/fit_clients/fit_round_73.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1942327175.44872</v>
+        <v>2402336742.470748</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08313685400043809</v>
+        <v>0.09198205380305614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03700754608454991</v>
+        <v>0.03755161640175902</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1997459441.938953</v>
+        <v>2172118486.483898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1279434858681761</v>
+        <v>0.1591392799717135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03405350022406484</v>
+        <v>0.03830082493538112</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4108133581.349598</v>
+        <v>5227163966.292105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1508625086594885</v>
+        <v>0.1552031854499777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02698814552637334</v>
+        <v>0.03675588635493139</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2721993620.153146</v>
+        <v>3079017933.096056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09661357876705137</v>
+        <v>0.08506016281085932</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04777420981538493</v>
+        <v>0.03739918991175345</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1925901684.45958</v>
+        <v>2565068953.662648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09494454886505956</v>
+        <v>0.1226141478425589</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04929448775687693</v>
+        <v>0.04130192143444489</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2739710731.854526</v>
+        <v>2425795470.080601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09552761223379833</v>
+        <v>0.07139344834014427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04471139430023673</v>
+        <v>0.03663167064866608</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3599429155.404385</v>
+        <v>2930044844.563869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1857006968066847</v>
+        <v>0.1526654335112139</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02254830416583644</v>
+        <v>0.03072928241549377</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2009144121.371986</v>
+        <v>1575313619.808516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1894477376378974</v>
+        <v>0.158339381866158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03735746727192637</v>
+        <v>0.02439716305884757</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5062351688.303815</v>
+        <v>5707418127.940087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1781384499593131</v>
+        <v>0.1458565318623822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04385162186880353</v>
+        <v>0.0495144798164238</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3585185431.061362</v>
+        <v>4140668517.61491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1717076340602896</v>
+        <v>0.1260472112720211</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04170248769673141</v>
+        <v>0.03667808242256761</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2907187011.157151</v>
+        <v>2006206468.879703</v>
       </c>
       <c r="F12" t="n">
-        <v>0.159002017992614</v>
+        <v>0.1855066673725035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05061813097815684</v>
+        <v>0.05301079586770821</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3558810052.037259</v>
+        <v>4054059595.893673</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09213889851179725</v>
+        <v>0.09372440999293094</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02104315731385326</v>
+        <v>0.0264028731941554</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3047079035.318391</v>
+        <v>2407140395.68321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1379937505073931</v>
+        <v>0.1315306755792822</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03521472315542164</v>
+        <v>0.02784845895305049</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1611451708.545478</v>
+        <v>1386113996.043185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08749559659404883</v>
+        <v>0.0780157840520523</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03393282626517793</v>
+        <v>0.04462355089426531</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2088798712.22754</v>
+        <v>2484132171.731783</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1086671832019379</v>
+        <v>0.07065882012239116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04183061746871524</v>
+        <v>0.0404542050835273</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3212479254.410548</v>
+        <v>3847849994.445076</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1513625499526907</v>
+        <v>0.1328432246589846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04079452019417743</v>
+        <v>0.04000432661767907</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3927813464.794504</v>
+        <v>3160759931.845128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.142331307296283</v>
+        <v>0.1850105929907768</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03318878238463666</v>
+        <v>0.03452576278675912</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>853359165.1093006</v>
+        <v>1365256207.851509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1273638920720116</v>
+        <v>0.1526477487302978</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01935647787190897</v>
+        <v>0.01830086757274682</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1837613203.970346</v>
+        <v>2721497583.59366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1224887476608887</v>
+        <v>0.157800286190902</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02962476385956057</v>
+        <v>0.02183699618675809</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2328405409.492545</v>
+        <v>2477138122.266737</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06352561321560261</v>
+        <v>0.0757378425469783</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04420594275653179</v>
+        <v>0.04163076299354532</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3149653408.516936</v>
+        <v>3932790375.126721</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1038274198687038</v>
+        <v>0.1077407561797279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04613294191871991</v>
+        <v>0.03657826480839887</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1536391079.126723</v>
+        <v>1348051062.015991</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1758319612714909</v>
+        <v>0.1558797439045575</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05055599059265703</v>
+        <v>0.03663327599098789</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2935381125.619193</v>
+        <v>3229670842.129356</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1120163409745829</v>
+        <v>0.1494508870026587</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02904978402949472</v>
+        <v>0.02917685658500729</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1164765263.341007</v>
+        <v>1334259086.58754</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08163923523440671</v>
+        <v>0.07629205153471816</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03022704986883162</v>
+        <v>0.0279534728432929</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1184718972.250519</v>
+        <v>1058642914.321284</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1094967009545276</v>
+        <v>0.1035777304462174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03593526703371776</v>
+        <v>0.03286183814063078</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4079213519.187639</v>
+        <v>4395880081.462642</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1114064871133956</v>
+        <v>0.1357507041925383</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02340774023198184</v>
+        <v>0.02572461175687635</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3318820473.317901</v>
+        <v>3151117301.077816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1000153208744545</v>
+        <v>0.1233793204551427</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04422301190843068</v>
+        <v>0.03458574916470704</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5565062428.41382</v>
+        <v>3898605665.191201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09940113730228134</v>
+        <v>0.1404290548727179</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03639790708623437</v>
+        <v>0.03566704942329221</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2127954480.693126</v>
+        <v>2229394570.305258</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08512451159369884</v>
+        <v>0.09675637720222877</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03702072055917023</v>
+        <v>0.04000330082774429</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>983818266.3068026</v>
+        <v>1310784662.771627</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08252883236664112</v>
+        <v>0.1048015172225749</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03408436323138801</v>
+        <v>0.04474759955722724</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1178969830.207967</v>
+        <v>1567548890.85103</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1193906302136693</v>
+        <v>0.07689492725890705</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02460916415910777</v>
+        <v>0.03065170653220964</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2754578626.358575</v>
+        <v>2961547389.179018</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1285512172242043</v>
+        <v>0.153202924336122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05379850145687731</v>
+        <v>0.05906584869610782</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1306649590.496194</v>
+        <v>1502910224.220275</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09798933466546821</v>
+        <v>0.08527987981294638</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0240339091026955</v>
+        <v>0.01832605569323347</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953532870.4981768</v>
+        <v>924264803.8740337</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0869419935508917</v>
+        <v>0.1014458963051705</v>
       </c>
       <c r="G35" t="n">
-        <v>0.044175803198489</v>
+        <v>0.03812902737948418</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3000971951.647591</v>
+        <v>2316004665.825424</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1775320520055118</v>
+        <v>0.1691632760058092</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02442364452911567</v>
+        <v>0.02131352249805311</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1785140022.729006</v>
+        <v>2869260174.501414</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1014114960763752</v>
+        <v>0.1022283738510843</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03281319547848288</v>
+        <v>0.03859934394888668</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1387634906.676759</v>
+        <v>1384671706.076006</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1162326219020351</v>
+        <v>0.07806919157212723</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02996455225408263</v>
+        <v>0.0240704942773016</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1992891515.265016</v>
+        <v>1660841829.220971</v>
       </c>
       <c r="F39" t="n">
-        <v>0.173754740856373</v>
+        <v>0.1766383785373527</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02338670984408753</v>
+        <v>0.03101330357294791</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1557153938.779008</v>
+        <v>1808439012.193231</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1230349993239788</v>
+        <v>0.1471475343116342</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05194338224137106</v>
+        <v>0.04827326142627413</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2133030856.566465</v>
+        <v>1979206247.27506</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1436954551957627</v>
+        <v>0.1499906093809567</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03012277903479068</v>
+        <v>0.03335814233970158</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3696730507.686339</v>
+        <v>3285853169.463974</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09943802889319557</v>
+        <v>0.1097690450264029</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03071046385731299</v>
+        <v>0.03133601194095243</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2059738879.316247</v>
+        <v>2738557954.152598</v>
       </c>
       <c r="F43" t="n">
-        <v>0.193150204553013</v>
+        <v>0.2018722773913679</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01859793798334443</v>
+        <v>0.02380825052622079</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1910223654.291325</v>
+        <v>2310192027.014803</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000022514962114</v>
+        <v>0.07512219665594436</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02505729448804637</v>
+        <v>0.02898400397927552</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1591647660.342144</v>
+        <v>1697658187.527817</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1930315052915913</v>
+        <v>0.1904176699232825</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0467394433453791</v>
+        <v>0.03608686297958018</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5471130177.767945</v>
+        <v>4861255492.521819</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1332687005936132</v>
+        <v>0.1771193897371516</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03744088269451814</v>
+        <v>0.05355219895399016</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4745316556.811335</v>
+        <v>3690125828.086712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508683906824638</v>
+        <v>0.1963236681797911</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04115290721962522</v>
+        <v>0.04150151178345526</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3938212166.697824</v>
+        <v>4349481209.316882</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09358174704746201</v>
+        <v>0.09911915336095159</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02854031401429062</v>
+        <v>0.02946318370990883</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1646236836.396533</v>
+        <v>1222352412.36547</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1432415429439646</v>
+        <v>0.1243612745076363</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03254770250033816</v>
+        <v>0.04427404218888759</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3539919985.50169</v>
+        <v>2973839048.168262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645451137814019</v>
+        <v>0.1131089935116086</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03862491117131139</v>
+        <v>0.04736781430804968</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1404254107.973196</v>
+        <v>1023799071.472368</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1967496903065859</v>
+        <v>0.1357267198394963</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05289069490715573</v>
+        <v>0.03663369717993038</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5055163651.031795</v>
+        <v>3384259676.257715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09369356753372887</v>
+        <v>0.119528655304826</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03899147911932697</v>
+        <v>0.04850121806315088</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2751270078.629307</v>
+        <v>2288083636.24472</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1976699464342519</v>
+        <v>0.1283598420618085</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02881227244899051</v>
+        <v>0.02457655748449606</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3678634368.293972</v>
+        <v>4875690819.41208</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1220764692343004</v>
+        <v>0.1277258375624196</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04754483083075708</v>
+        <v>0.0406782329812776</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4012917437.377087</v>
+        <v>4228234963.579028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2080432499214521</v>
+        <v>0.1792216095418304</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02692110071924933</v>
+        <v>0.02270761775064665</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1708334473.069133</v>
+        <v>1511776513.041101</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09984113380141731</v>
+        <v>0.1633596876255589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04314624632886748</v>
+        <v>0.04178221396749959</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3302737735.53358</v>
+        <v>3438969715.904506</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1531190576496471</v>
+        <v>0.1740002862704744</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02019771795072184</v>
+        <v>0.01698449840853252</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1706778984.438648</v>
+        <v>1468561841.419798</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1465438213608876</v>
+        <v>0.1889862338610182</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02991422276802016</v>
+        <v>0.03508731958826242</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4864917786.383012</v>
+        <v>4534179354.927429</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291282943223558</v>
+        <v>0.08442434980808636</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03163483789496749</v>
+        <v>0.03303803382237924</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3729464799.990112</v>
+        <v>2520144159.017831</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1724102326225888</v>
+        <v>0.1612298253233237</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03257743619996897</v>
+        <v>0.02725423761190109</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3319853552.062544</v>
+        <v>2586067039.808478</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1248634415581629</v>
+        <v>0.1552868502402065</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02880402960448104</v>
+        <v>0.02063795911367448</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2062806502.149732</v>
+        <v>2087323375.533753</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1428879315849997</v>
+        <v>0.1317668342652403</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03491897086419952</v>
+        <v>0.04313747046842437</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5073252023.116928</v>
+        <v>5385578491.924811</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08510163028246223</v>
+        <v>0.1060078075011416</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03636513694318987</v>
+        <v>0.03348556636317632</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4682394276.08507</v>
+        <v>4117419723.08339</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1860210144126317</v>
+        <v>0.1712549110851259</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02548812253426179</v>
+        <v>0.03522196568014109</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5394764606.931807</v>
+        <v>5471230376.980519</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1262873636510678</v>
+        <v>0.1690878806302817</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02168970955451052</v>
+        <v>0.02114696726036706</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3658669306.108513</v>
+        <v>5421992649.874164</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1500713983255163</v>
+        <v>0.1102287935052366</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04103929376930152</v>
+        <v>0.04048206118796343</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138597915.976725</v>
+        <v>2736235747.028879</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06784169107648329</v>
+        <v>0.09162297694495923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03470664041830271</v>
+        <v>0.04953757747928126</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5461093703.292676</v>
+        <v>5593157515.766971</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1600118337370819</v>
+        <v>0.1000024173012795</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03400694642730152</v>
+        <v>0.05108435954603737</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1928623786.719332</v>
+        <v>2429765445.162346</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1745418449725945</v>
+        <v>0.1483290326035653</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05920256742976883</v>
+        <v>0.05334729422385317</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3444919642.950389</v>
+        <v>2808534076.678185</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06428869330255249</v>
+        <v>0.08013986971575136</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04243277946539568</v>
+        <v>0.04435988579004325</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5549911036.968313</v>
+        <v>3954405781.429142</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187241207053063</v>
+        <v>0.1163380636642015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02986270515827727</v>
+        <v>0.02196291112260312</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1646300264.370047</v>
+        <v>2175977266.939815</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09805909083285871</v>
+        <v>0.1021981076863889</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03462448263456389</v>
+        <v>0.04512436258216523</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3556140979.64484</v>
+        <v>2420463029.230615</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06798932160944435</v>
+        <v>0.1091093573626383</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04367714618945207</v>
+        <v>0.03400106094932718</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3683895070.601414</v>
+        <v>2547258817.949689</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1661842641289017</v>
+        <v>0.1832089628907519</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03344656365036922</v>
+        <v>0.03263579525216149</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1536366302.857572</v>
+        <v>1511822750.153553</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1174075893526264</v>
+        <v>0.1415466740887001</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02605554328463887</v>
+        <v>0.03471108223986773</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3257909297.687219</v>
+        <v>4534694569.613562</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08720232140030425</v>
+        <v>0.1097714438259583</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03202464411992301</v>
+        <v>0.0250769819358089</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1736892670.173407</v>
+        <v>1826721993.724885</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1229115916421177</v>
+        <v>0.1861690337063617</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02281748239712718</v>
+        <v>0.0241399041250999</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3109244104.950194</v>
+        <v>3469657846.184604</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1336653309970651</v>
+        <v>0.08257188901571083</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05611207429615362</v>
+        <v>0.03450622903987331</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1270564110.662167</v>
+        <v>1564539002.485045</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1328660120227229</v>
+        <v>0.1745281566388013</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04066407589760297</v>
+        <v>0.03528002572732713</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4907045356.087111</v>
+        <v>5338881527.467674</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07130744315605654</v>
+        <v>0.08521886221841329</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03569713562292589</v>
+        <v>0.03426197332731434</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4142774011.425087</v>
+        <v>4454377366.358541</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1166761942025203</v>
+        <v>0.1146685273251194</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02946339154825038</v>
+        <v>0.02968880433894519</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5538180187.590078</v>
+        <v>5665141427.189013</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139396619142975</v>
+        <v>0.185739125006068</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02460596732494328</v>
+        <v>0.02128106605410932</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1658752558.866763</v>
+        <v>1523828827.611181</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1493343941125406</v>
+        <v>0.12923215680397</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04305774542962715</v>
+        <v>0.03718485026433791</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2066347599.992712</v>
+        <v>1880050496.545222</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1167637957045241</v>
+        <v>0.1185715305040711</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04411245596889939</v>
+        <v>0.04337116558856234</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3348035859.229761</v>
+        <v>3651098843.804443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1298241421317982</v>
+        <v>0.1662093959614206</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05149836804987968</v>
+        <v>0.04656591389647807</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2776161830.590116</v>
+        <v>2267757480.404349</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1601600680876161</v>
+        <v>0.1089825825170877</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02455594081018702</v>
+        <v>0.01699050497024884</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1073426138.213494</v>
+        <v>1222675312.210016</v>
       </c>
       <c r="F87" t="n">
-        <v>0.14778274623106</v>
+        <v>0.1403735003732051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04285208620280177</v>
+        <v>0.04271088393351097</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2480126061.228585</v>
+        <v>3280579552.972986</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1349917650138086</v>
+        <v>0.1388162379019433</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0358042328998434</v>
+        <v>0.02631663266672126</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3385440732.863748</v>
+        <v>3143356669.968135</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1351107448389807</v>
+        <v>0.1114697912513267</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03097778391638543</v>
+        <v>0.04157321332278748</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1710501851.009261</v>
+        <v>2011196543.7192</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1203342287310336</v>
+        <v>0.1158562110302248</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0434656691636895</v>
+        <v>0.05548324686397875</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1633460509.627964</v>
+        <v>1302874376.477785</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340913201920335</v>
+        <v>0.1190441114387615</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05884629306386099</v>
+        <v>0.04339290126101522</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1829646721.502935</v>
+        <v>2981506817.331182</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09754532316353814</v>
+        <v>0.09797425139632683</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04733725264399154</v>
+        <v>0.0312445193472755</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4706929034.577616</v>
+        <v>4959195629.813934</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1019227286080807</v>
+        <v>0.09605334777384616</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04888483438251677</v>
+        <v>0.03882993579651939</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1739655352.16285</v>
+        <v>2087829742.759098</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1260360354824145</v>
+        <v>0.1163785381012216</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03971277005562118</v>
+        <v>0.02836986206362957</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3224605513.433307</v>
+        <v>3051520156.416961</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1184354314434514</v>
+        <v>0.1373682444771455</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03728457695988226</v>
+        <v>0.03335636889485824</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2256740051.244132</v>
+        <v>1753635758.475314</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1033638520278473</v>
+        <v>0.1104898737262616</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0420716712447841</v>
+        <v>0.03205008412388257</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4585145851.619629</v>
+        <v>5242538183.780095</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1425413695247974</v>
+        <v>0.1233766669454753</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01779112071130336</v>
+        <v>0.02451700578187299</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3080526375.590012</v>
+        <v>3461855857.804025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09523392626281886</v>
+        <v>0.1266778833851964</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0265095750234404</v>
+        <v>0.03256857455198731</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2238880050.738488</v>
+        <v>3070122160.118537</v>
       </c>
       <c r="F99" t="n">
-        <v>0.119919796169161</v>
+        <v>0.1139331578419236</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02805131037803896</v>
+        <v>0.03281173820488165</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3560747552.924582</v>
+        <v>3343485172.944118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1088908395037816</v>
+        <v>0.1271216469407076</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01998515888604959</v>
+        <v>0.02076835005828902</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3561995958.691193</v>
+        <v>3155821015.648355</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1913015123878507</v>
+        <v>0.1798499751580346</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05176683033981316</v>
+        <v>0.0571304745326791</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_73.xlsx
+++ b/output/fit_clients/fit_round_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2402336742.470748</v>
+        <v>2384649421.129661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09198205380305614</v>
+        <v>0.09057684736151816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03755161640175902</v>
+        <v>0.03008772733822269</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2172118486.483898</v>
+        <v>2560237099.045864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1591392799717135</v>
+        <v>0.1503639882310488</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03830082493538112</v>
+        <v>0.04677097167834321</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5227163966.292105</v>
+        <v>5044325959.121882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1552031854499777</v>
+        <v>0.1006679857374676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03675588635493139</v>
+        <v>0.03201422434202045</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3079017933.096056</v>
+        <v>2650679674.68159</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08506016281085932</v>
+        <v>0.07839312134271111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03739918991175345</v>
+        <v>0.05104903150057698</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>72</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78.31693000566347</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2565068953.662648</v>
+        <v>2424764547.323183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1226141478425589</v>
+        <v>0.1339441584681912</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04130192143444489</v>
+        <v>0.05154797024863189</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2425795470.080601</v>
+        <v>1947407270.246181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07139344834014427</v>
+        <v>0.08020487356845037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03663167064866608</v>
+        <v>0.03161014193058762</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2930044844.563869</v>
+        <v>3967268973.591047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1526654335112139</v>
+        <v>0.2004985826089635</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03072928241549377</v>
+        <v>0.03218112394162976</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>73</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1575313619.808516</v>
+        <v>1425744716.946564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.158339381866158</v>
+        <v>0.1902450251019102</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02439716305884757</v>
+        <v>0.03454161355390054</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5707418127.940087</v>
+        <v>5660697737.998095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1458565318623822</v>
+        <v>0.1361653817497666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0495144798164238</v>
+        <v>0.05126134728778155</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>67</v>
+      </c>
+      <c r="J10" t="n">
+        <v>73</v>
+      </c>
+      <c r="K10" t="n">
+        <v>205.1404358832584</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4140668517.61491</v>
+        <v>4109072785.312619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1260472112720211</v>
+        <v>0.133991166241748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03667808242256761</v>
+        <v>0.03944694640965729</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2006206468.879703</v>
+        <v>2650205730.370074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1855066673725035</v>
+        <v>0.1331880652899047</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05301079586770821</v>
+        <v>0.05112254655876083</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4054059595.893673</v>
+        <v>4306367832.727925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09372440999293094</v>
+        <v>0.06558262583004051</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0264028731941554</v>
+        <v>0.02740044397818928</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>37</v>
+      </c>
+      <c r="J13" t="n">
+        <v>73</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2407140395.68321</v>
+        <v>2587924135.562218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1315306755792822</v>
+        <v>0.1664762581636827</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02784845895305049</v>
+        <v>0.03428109096371421</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>71</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1386113996.043185</v>
+        <v>1772382252.014472</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0780157840520523</v>
+        <v>0.09565171514286211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04462355089426531</v>
+        <v>0.03443705226183758</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2484132171.731783</v>
+        <v>2800804427.006861</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07065882012239116</v>
+        <v>0.0967925532052069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0404542050835273</v>
+        <v>0.03399345607858274</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3847849994.445076</v>
+        <v>4417954005.394773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328432246589846</v>
+        <v>0.1345139023949831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04000432661767907</v>
+        <v>0.04969524120208511</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>72</v>
+      </c>
+      <c r="K17" t="n">
+        <v>162.4675344804359</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3160759931.845128</v>
+        <v>2869781709.810714</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1850105929907768</v>
+        <v>0.1543176310406003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03452576278675912</v>
+        <v>0.02272581773748514</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1365256207.851509</v>
+        <v>1200378312.223379</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1526477487302978</v>
+        <v>0.1821365910866585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01830086757274682</v>
+        <v>0.0220259848763773</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2721497583.59366</v>
+        <v>2148620310.494361</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157800286190902</v>
+        <v>0.1381819801027869</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02183699618675809</v>
+        <v>0.02941523568899833</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2477138122.266737</v>
+        <v>2516475036.725455</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0757378425469783</v>
+        <v>0.06297534393426937</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04163076299354532</v>
+        <v>0.04415571378689949</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3932790375.126721</v>
+        <v>2910382506.035248</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1077407561797279</v>
+        <v>0.08910664124458798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03657826480839887</v>
+        <v>0.05101268414277922</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>72</v>
+      </c>
+      <c r="K22" t="n">
+        <v>77.54813915852004</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1348051062.015991</v>
+        <v>962570263.0859519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1558797439045575</v>
+        <v>0.1624412190649324</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03663327599098789</v>
+        <v>0.0382529011000444</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3229670842.129356</v>
+        <v>3326598220.113297</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1494508870026587</v>
+        <v>0.09744884999366361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02917685658500729</v>
+        <v>0.03107218393220652</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>72</v>
+      </c>
+      <c r="K24" t="n">
+        <v>105.9188700052797</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1334259086.58754</v>
+        <v>1338979275.861567</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07629205153471816</v>
+        <v>0.09598851820041351</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0279534728432929</v>
+        <v>0.01956092222684568</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1058642914.321284</v>
+        <v>1014362454.770055</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1035777304462174</v>
+        <v>0.1199707199837421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03286183814063078</v>
+        <v>0.03779406500000276</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4395880081.462642</v>
+        <v>4581700425.495139</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1357507041925383</v>
+        <v>0.1087579344419519</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02572461175687635</v>
+        <v>0.0270592077293942</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>73</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3151117301.077816</v>
+        <v>3718373335.448652</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1233793204551427</v>
+        <v>0.09537092191429887</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03458574916470704</v>
+        <v>0.03658912866093675</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3898605665.191201</v>
+        <v>5944283647.642472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1404290548727179</v>
+        <v>0.109654102565556</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03566704942329221</v>
+        <v>0.03961891074644894</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>73</v>
+      </c>
+      <c r="K29" t="n">
+        <v>211.9161095305944</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2229394570.305258</v>
+        <v>1967749888.888714</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09675637720222877</v>
+        <v>0.08788208016075456</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04000330082774429</v>
+        <v>0.03639442208810598</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1310784662.771627</v>
+        <v>1262626551.398689</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048015172225749</v>
+        <v>0.1089860793778661</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04474759955722724</v>
+        <v>0.04417476554533301</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1567548890.85103</v>
+        <v>1632258143.065839</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07689492725890705</v>
+        <v>0.09712682017471351</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03065170653220964</v>
+        <v>0.03768473482862182</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2961547389.179018</v>
+        <v>2185980627.587611</v>
       </c>
       <c r="F33" t="n">
-        <v>0.153202924336122</v>
+        <v>0.1300521474458095</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05906584869610782</v>
+        <v>0.05493703039836883</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1502910224.220275</v>
+        <v>1051298788.01665</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08527987981294638</v>
+        <v>0.1066985879125787</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01832605569323347</v>
+        <v>0.02161028156130069</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>924264803.8740337</v>
+        <v>844999604.0804348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1014458963051705</v>
+        <v>0.09699012841236064</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03812902737948418</v>
+        <v>0.03006542157514405</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2316004665.825424</v>
+        <v>2007846374.119155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1691632760058092</v>
+        <v>0.1388296089728787</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02131352249805311</v>
+        <v>0.02744651499027186</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2869260174.501414</v>
+        <v>1946488877.405057</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1022283738510843</v>
+        <v>0.07861991362634635</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03859934394888668</v>
+        <v>0.04006406090188159</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1384671706.076006</v>
+        <v>1596714909.253452</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07806919157212723</v>
+        <v>0.09954049860703656</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0240704942773016</v>
+        <v>0.03281631297764247</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1660841829.220971</v>
+        <v>1810472034.848637</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1766383785373527</v>
+        <v>0.1938623028972656</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03101330357294791</v>
+        <v>0.02467494002709252</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1808439012.193231</v>
+        <v>1415015421.327062</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1471475343116342</v>
+        <v>0.1087881363128343</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04827326142627413</v>
+        <v>0.04389344899089785</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1979206247.27506</v>
+        <v>2017725889.086233</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1499906093809567</v>
+        <v>0.1554456752814661</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03335814233970158</v>
+        <v>0.04387236509805367</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3285853169.463974</v>
+        <v>3249722117.853712</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1097690450264029</v>
+        <v>0.09346726079100214</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03133601194095243</v>
+        <v>0.04517384245169835</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>72</v>
+      </c>
+      <c r="K42" t="n">
+        <v>106.5825180492057</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2738557954.152598</v>
+        <v>2635399895.944508</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2018722773913679</v>
+        <v>0.1627245305517391</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02380825052622079</v>
+        <v>0.01897190172285724</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2310192027.014803</v>
+        <v>1664207332.304741</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07512219665594436</v>
+        <v>0.1010850765447701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02898400397927552</v>
+        <v>0.03517450426199161</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1697658187.527817</v>
+        <v>1672178161.634473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1904176699232825</v>
+        <v>0.1740193420331008</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03608686297958018</v>
+        <v>0.04913552967305436</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4861255492.521819</v>
+        <v>3580102532.435947</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1771193897371516</v>
+        <v>0.1593766649162602</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05355219895399016</v>
+        <v>0.05254716823153048</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>43</v>
+      </c>
+      <c r="J46" t="n">
+        <v>72</v>
+      </c>
+      <c r="K46" t="n">
+        <v>129.7365411184594</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3690125828.086712</v>
+        <v>3695745526.457621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1963236681797911</v>
+        <v>0.1458569955681343</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04150151178345526</v>
+        <v>0.0395610323789776</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>32</v>
+      </c>
+      <c r="J47" t="n">
+        <v>73</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4349481209.316882</v>
+        <v>3457285371.168276</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09911915336095159</v>
+        <v>0.09766182389489232</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02946318370990883</v>
+        <v>0.02886173533979835</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>72</v>
+      </c>
+      <c r="K48" t="n">
+        <v>123.5849856374228</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1222352412.36547</v>
+        <v>1272849459.024684</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1243612745076363</v>
+        <v>0.1402510554825985</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04427404218888759</v>
+        <v>0.03522957221753979</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2973839048.168262</v>
+        <v>3126507199.2851</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1131089935116086</v>
+        <v>0.1696137982032499</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04736781430804968</v>
+        <v>0.04641211669280393</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>72</v>
+      </c>
+      <c r="K50" t="n">
+        <v>99.40206061115659</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1023799071.472368</v>
+        <v>1544139055.063862</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1357267198394963</v>
+        <v>0.1791361641438253</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03663369717993038</v>
+        <v>0.03628055091542137</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3384259676.257715</v>
+        <v>3354477472.269057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.119528655304826</v>
+        <v>0.138984498670687</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04850121806315088</v>
+        <v>0.04678583625214185</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>71</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2288083636.24472</v>
+        <v>3229964833.069479</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1283598420618085</v>
+        <v>0.1449223691098354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02457655748449606</v>
+        <v>0.02356485897028169</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4875690819.41208</v>
+        <v>4787845174.495901</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277258375624196</v>
+        <v>0.159609929864644</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0406782329812776</v>
+        <v>0.04900860683509832</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>32</v>
+      </c>
+      <c r="J54" t="n">
+        <v>73</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4228234963.579028</v>
+        <v>4778245564.318388</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1792216095418304</v>
+        <v>0.1904909668984036</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02270761775064665</v>
+        <v>0.02262255806465774</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>34</v>
+      </c>
+      <c r="J55" t="n">
+        <v>72</v>
+      </c>
+      <c r="K55" t="n">
+        <v>162.7411184166715</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1511776513.041101</v>
+        <v>1887245402.309733</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1633596876255589</v>
+        <v>0.1623959289928231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04178221396749959</v>
+        <v>0.04802991304208427</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3438969715.904506</v>
+        <v>3976389988.392458</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1740002862704744</v>
+        <v>0.1827908985870515</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01698449840853252</v>
+        <v>0.02318879663496646</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>73</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1468561841.419798</v>
+        <v>1334290637.032601</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1889862338610182</v>
+        <v>0.1467906782640642</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03508731958826242</v>
+        <v>0.03756408265790906</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4534179354.927429</v>
+        <v>5316426751.771341</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08442434980808636</v>
+        <v>0.1239059893135291</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03303803382237924</v>
+        <v>0.03670581594888999</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>35</v>
+      </c>
+      <c r="J59" t="n">
+        <v>73</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2520144159.017831</v>
+        <v>3710105640.259376</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1612298253233237</v>
+        <v>0.1692642334861384</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02725423761190109</v>
+        <v>0.03004081155074957</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>73</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2586067039.808478</v>
+        <v>2300828244.922145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1552868502402065</v>
+        <v>0.1517096347372272</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02063795911367448</v>
+        <v>0.02722646443058583</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2087323375.533753</v>
+        <v>1711706582.418082</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1317668342652403</v>
+        <v>0.1808637680120354</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04313747046842437</v>
+        <v>0.03788405021511443</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5385578491.924811</v>
+        <v>4224570995.757248</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060078075011416</v>
+        <v>0.07796082875995006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03348556636317632</v>
+        <v>0.03608872142018767</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>36</v>
+      </c>
+      <c r="J63" t="n">
+        <v>72</v>
+      </c>
+      <c r="K63" t="n">
+        <v>169.5518419476479</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4117419723.08339</v>
+        <v>4538343387.347916</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1712549110851259</v>
+        <v>0.1272264431723512</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03522196568014109</v>
+        <v>0.02674114394055027</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>36</v>
+      </c>
+      <c r="J64" t="n">
+        <v>72</v>
+      </c>
+      <c r="K64" t="n">
+        <v>173.3136226818706</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5471230376.980519</v>
+        <v>4544922099.333007</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1690878806302817</v>
+        <v>0.1259624869086275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02114696726036706</v>
+        <v>0.02541872098519157</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>58</v>
+      </c>
+      <c r="J65" t="n">
+        <v>72</v>
+      </c>
+      <c r="K65" t="n">
+        <v>185.2054392173004</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5421992649.874164</v>
+        <v>5596338703.377267</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1102287935052366</v>
+        <v>0.1164405109726031</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04048206118796343</v>
+        <v>0.04284233665384492</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>36</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72</v>
+      </c>
+      <c r="K66" t="n">
+        <v>174.192681691015</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2736235747.028879</v>
+        <v>2654772090.385966</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09162297694495923</v>
+        <v>0.07451243031077102</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04953757747928126</v>
+        <v>0.04840082721746397</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5593157515.766971</v>
+        <v>4465492811.068464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1000024173012795</v>
+        <v>0.133071069013158</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05108435954603737</v>
+        <v>0.03232975518693866</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>36</v>
+      </c>
+      <c r="J68" t="n">
+        <v>73</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2429765445.162346</v>
+        <v>1539996846.063073</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1483290326035653</v>
+        <v>0.165263669499999</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05334729422385317</v>
+        <v>0.05864697124720775</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2808534076.678185</v>
+        <v>3294860166.604444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08013986971575136</v>
+        <v>0.08158444344255553</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04435988579004325</v>
+        <v>0.04977195277764267</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3954405781.429142</v>
+        <v>5388150040.784525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1163380636642015</v>
+        <v>0.155262735088048</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02196291112260312</v>
+        <v>0.0250530763437839</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>60</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73</v>
+      </c>
+      <c r="K71" t="n">
+        <v>187.1236000776712</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2175977266.939815</v>
+        <v>2073812493.015186</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1021981076863889</v>
+        <v>0.08173439051853942</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04512436258216523</v>
+        <v>0.04972307320584533</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2420463029.230615</v>
+        <v>2871942139.001465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091093573626383</v>
+        <v>0.07433399868524318</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03400106094932718</v>
+        <v>0.05245529449471093</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547258817.949689</v>
+        <v>3051180097.471916</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1832089628907519</v>
+        <v>0.1653328717925057</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03263579525216149</v>
+        <v>0.02409539932650581</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1511822750.153553</v>
+        <v>2208063531.489213</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1415466740887001</v>
+        <v>0.128679750062705</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03471108223986773</v>
+        <v>0.03568760610786585</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4534694569.613562</v>
+        <v>4014759926.499444</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1097714438259583</v>
+        <v>0.1012580837549743</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0250769819358089</v>
+        <v>0.02876276705538013</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>33</v>
+      </c>
+      <c r="J76" t="n">
+        <v>73</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1826721993.724885</v>
+        <v>1672371253.023</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1861690337063617</v>
+        <v>0.1266252659629211</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0241399041250999</v>
+        <v>0.01916994643226693</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3469657846.184604</v>
+        <v>4707783801.881599</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08257188901571083</v>
+        <v>0.09311432096154242</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03450622903987331</v>
+        <v>0.04118441793687518</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>34</v>
+      </c>
+      <c r="J78" t="n">
+        <v>73</v>
+      </c>
+      <c r="K78" t="n">
+        <v>190.4502610841096</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1564539002.485045</v>
+        <v>1623956347.491178</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1745281566388013</v>
+        <v>0.1358758829077649</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03528002572732713</v>
+        <v>0.03603764424377768</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5338881527.467674</v>
+        <v>5525538846.40242</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08521886221841329</v>
+        <v>0.09230757907136281</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03426197332731434</v>
+        <v>0.0254274746208549</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>35</v>
+      </c>
+      <c r="J80" t="n">
+        <v>73</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4454377366.358541</v>
+        <v>3177281161.021621</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1146685273251194</v>
+        <v>0.1336199470510649</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02968880433894519</v>
+        <v>0.02988283326597977</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>33</v>
+      </c>
+      <c r="J81" t="n">
+        <v>72</v>
+      </c>
+      <c r="K81" t="n">
+        <v>83.42529306730636</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5665141427.189013</v>
+        <v>4681528507.494462</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185739125006068</v>
+        <v>0.2034135326319601</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02128106605410932</v>
+        <v>0.02796292880393604</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>45</v>
+      </c>
+      <c r="J82" t="n">
+        <v>73</v>
+      </c>
+      <c r="K82" t="n">
+        <v>191.1438884939842</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1523828827.611181</v>
+        <v>2093536554.424197</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12923215680397</v>
+        <v>0.1554666146912378</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03718485026433791</v>
+        <v>0.04381128623952195</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1880050496.545222</v>
+        <v>1798331904.657513</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1185715305040711</v>
+        <v>0.08991590725698068</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04337116558856234</v>
+        <v>0.04709362421189751</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3651098843.804443</v>
+        <v>3265637019.943532</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1662093959614206</v>
+        <v>0.1770912226796436</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04656591389647807</v>
+        <v>0.05236024347295182</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2267757480.404349</v>
+        <v>2493486922.218332</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1089825825170877</v>
+        <v>0.1682764596096073</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01699050497024884</v>
+        <v>0.02615357930119506</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1222675312.210016</v>
+        <v>1069630157.670284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1403735003732051</v>
+        <v>0.1216315940079432</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04271088393351097</v>
+        <v>0.03575895421922129</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3280579552.972986</v>
+        <v>3564068205.821071</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1388162379019433</v>
+        <v>0.1308178043834371</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02631663266672126</v>
+        <v>0.02621239388337919</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3143356669.968135</v>
+        <v>2558897772.670045</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1114697912513267</v>
+        <v>0.1358570914122255</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04157321332278748</v>
+        <v>0.03611681258595571</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2011196543.7192</v>
+        <v>1758797563.661782</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1158562110302248</v>
+        <v>0.1182348604967575</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05548324686397875</v>
+        <v>0.05571813113290124</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1302874376.477785</v>
+        <v>2025009464.253394</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1190441114387615</v>
+        <v>0.1460051586177747</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04339290126101522</v>
+        <v>0.04381470278028678</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2981506817.331182</v>
+        <v>2299303380.74581</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09797425139632683</v>
+        <v>0.09850108097839096</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0312445193472755</v>
+        <v>0.04350625932664436</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4959195629.813934</v>
+        <v>3899144906.425153</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09605334777384616</v>
+        <v>0.1234581613487127</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03882993579651939</v>
+        <v>0.0419334069228256</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>33</v>
+      </c>
+      <c r="J93" t="n">
+        <v>72</v>
+      </c>
+      <c r="K93" t="n">
+        <v>142.3797312974041</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2087829742.759098</v>
+        <v>2124827736.163028</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1163785381012216</v>
+        <v>0.1632465369172476</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02836986206362957</v>
+        <v>0.04241789851746754</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3051520156.416961</v>
+        <v>2693854378.75718</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1373682444771455</v>
+        <v>0.1138014739799871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03335636889485824</v>
+        <v>0.04454683363269445</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1753635758.475314</v>
+        <v>1519379624.484192</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1104898737262616</v>
+        <v>0.1302961305262208</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03205008412388257</v>
+        <v>0.04627789236271625</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5242538183.780095</v>
+        <v>3552902476.885766</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1233766669454753</v>
+        <v>0.1485614715372762</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02451700578187299</v>
+        <v>0.02060755550640279</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>35</v>
+      </c>
+      <c r="J97" t="n">
+        <v>71</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3461855857.804025</v>
+        <v>2758283409.036711</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1266778833851964</v>
+        <v>0.08014334859856122</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03256857455198731</v>
+        <v>0.02344246251462372</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3070122160.118537</v>
+        <v>2106925431.357293</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1139331578419236</v>
+        <v>0.1295881444954805</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03281173820488165</v>
+        <v>0.02560099782466206</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3343485172.944118</v>
+        <v>4110910413.749439</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1271216469407076</v>
+        <v>0.1314651476881109</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02076835005828902</v>
+        <v>0.02619657029356461</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="n">
+        <v>73</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3155821015.648355</v>
+        <v>2877190312.490723</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1798499751580346</v>
+        <v>0.1457557272536367</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0571304745326791</v>
+        <v>0.04699544960138164</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
